--- a/biology/Botanique/Cytise/Cytise.xlsx
+++ b/biology/Botanique/Cytise/Cytise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cytise est un nom vernaculaire masculin ambigu désignant en français diverses plantes généralement arbustives de la famille des Fabaceae.
-Le mot cytise constitue l'emprunt du latin cytisus, transcription du grec κύτισος, kútisos [1] qui était à l'origine le nom d'une espèce de trèfle ou de luzerne très répandue sur l'île grecque de Kythnos[réf. nécessaire], puis devient un nom générique pour un grand nombre de légumineuses.
+Le mot cytise constitue l'emprunt du latin cytisus, transcription du grec κύτισος, kútisos  qui était à l'origine le nom d'une espèce de trèfle ou de luzerne très répandue sur l'île grecque de Kythnos[réf. nécessaire], puis devient un nom générique pour un grand nombre de légumineuses.
 Les cytises font partie de plusieurs genres Laburnum, Cytisophyllum et principalement Cytisus, le genre des cytises « véritables », néanmoins ses espèces ne sont pas forcément les cytises les plus connus.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Liste d'espèces nommées « cytise »</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cytise - les espèces du genre Cytisus ou autre nom de l'espèce Laburnum anagyroides
 cytise des Alpes - Laburnum alpinum
@@ -553,10 +567,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toponymie
-Le cytise a donné son nom au parc animalier situé sur le territoire de la commune de Bénifontaine, Communaupole de Lens-Liévin[2].
-Langage des fleurs
-Dans le langage des fleurs, le cytise symbolise la dissimulation[3].
+          <t>Toponymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cytise a donné son nom au parc animalier situé sur le territoire de la commune de Bénifontaine, Communaupole de Lens-Liévin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cytise</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cytise</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Aspects culturels</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Langage des fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, le cytise symbolise la dissimulation.
 </t>
         </is>
       </c>
